--- a/patient_data/patient_44.xlsx
+++ b/patient_data/patient_44.xlsx
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1555,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1605,25 +1605,25 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2070,22 +2070,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
